--- a/Dokumente/Ausstände CA.xlsx
+++ b/Dokumente/Ausstände CA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LuGol/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/T3-Extern/SourceTree/cycling-adventures.org/Dokumente/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="13">
   <si>
     <t>Ausstände CA</t>
   </si>
@@ -63,14 +63,21 @@
   </si>
   <si>
     <t>Marketing, Recht, Gründung, Kauf und Verkauf eines Reisebüros</t>
+  </si>
+  <si>
+    <t>Verlust Vogesen</t>
+  </si>
+  <si>
+    <t>Trikot Set Hape Bar eingesackt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* &quot;-&quot;??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-407];[Red]\-#,##0.00\ [$€-407]"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -113,7 +120,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -121,6 +128,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Stand." xfId="0" builtinId="0"/>
@@ -417,7 +426,7 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <f>Lutz!E2+Lukas!E2+Roli!E2</f>
-        <v>1084</v>
+        <v>699.85</v>
       </c>
     </row>
   </sheetData>
@@ -427,17 +436,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -447,7 +456,7 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
@@ -455,29 +464,29 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
+      <c r="A2" s="6">
+        <v>42614</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>735</v>
+        <v>10</v>
+      </c>
+      <c r="C2" s="8">
+        <v>138</v>
       </c>
       <c r="E2" s="3">
         <f>SUM(C:C)</f>
-        <v>1084</v>
+        <v>699.85</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
+      <c r="A3" s="5">
+        <v>42707</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3">
-        <v>140</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="8">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -487,30 +496,52 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>42707</v>
+      <c r="A5" t="s">
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3">
-        <v>60</v>
+        <v>6</v>
+      </c>
+      <c r="C5" s="8">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6">
-        <v>42614</v>
+      <c r="A6" t="s">
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3">
-        <v>138</v>
+        <v>5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>42856</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="8">
+        <v>-284.14999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>42856</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="8">
+        <v>-100</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumente/Ausstände CA.xlsx
+++ b/Dokumente/Ausstände CA.xlsx
@@ -5,204 +5,207 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Lutz" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Lukas" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Roli" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Ruth" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
-  <si>
-    <t>Ausstände CA</t>
-  </si>
-  <si>
-    <t>Datum</t>
-  </si>
-  <si>
-    <t>Was</t>
-  </si>
-  <si>
-    <t>Ausgabe für CA</t>
-  </si>
-  <si>
-    <t>SUMME</t>
-  </si>
-  <si>
-    <t>Marketing, Recht, Gründung, Kauf und Verkauf eines Reisebüros</t>
-  </si>
-  <si>
-    <t>Plugin Instagram Feed Developer</t>
-  </si>
-  <si>
-    <t>Plugin Hover Effects Builder</t>
-  </si>
-  <si>
-    <t>März/April 2017</t>
-  </si>
-  <si>
-    <t>Verpflegung Ligurien 7 Tage</t>
-  </si>
-  <si>
-    <t>Guiding 3 Wochen</t>
-  </si>
-  <si>
-    <t>Verlust Vogesen</t>
-  </si>
-  <si>
-    <t>Trikot Set Hape Bar eingesackt</t>
-  </si>
-  <si>
-    <t>50% Anteil Toskana</t>
-  </si>
-  <si>
-    <t>Guidelohn Toskana</t>
-  </si>
-  <si>
-    <t>King Size Theme</t>
-  </si>
-  <si>
-    <t>Trikotsatz Xandi</t>
-  </si>
-  <si>
-    <t>Roxima Theme</t>
-  </si>
-  <si>
-    <t>Logoentwurf</t>
-  </si>
-  <si>
-    <t>Drucksachen</t>
-  </si>
-  <si>
-    <t>Domains</t>
-  </si>
-  <si>
-    <t>Unterschrift Notar</t>
-  </si>
-  <si>
-    <t>Auszug Niederlassung</t>
-  </si>
-  <si>
-    <t>Domainverlängerungen</t>
-  </si>
-  <si>
-    <t>WP Plugin WP Rocket</t>
-  </si>
-  <si>
-    <t>Porto Flyerversand</t>
-  </si>
-  <si>
-    <t>Domains 2017</t>
-  </si>
-  <si>
-    <t>Fotos Shop</t>
-  </si>
-  <si>
-    <t>Miete Villa Maeva</t>
-  </si>
-  <si>
-    <t>CDA1 2017</t>
-  </si>
-  <si>
-    <t>Ligurien 2017</t>
-  </si>
-  <si>
-    <t>Domainverlängerungen Mai 17</t>
-  </si>
-  <si>
-    <t>Guiding ST</t>
-  </si>
-  <si>
-    <t>Ergebnis CDA1</t>
-  </si>
-  <si>
-    <t>Ergebnis LIG1</t>
-  </si>
-  <si>
-    <t>Ergebnis CDA2</t>
-  </si>
-  <si>
-    <t>Ergebnis LIG2</t>
-  </si>
-  <si>
-    <t>Guiding Jura</t>
-  </si>
-  <si>
-    <t>Ergebnis Jura</t>
-  </si>
-  <si>
-    <t>Juni-16</t>
-  </si>
-  <si>
-    <t>Prüfung + Kurs Reisebüro AT</t>
-  </si>
-  <si>
-    <t>Nov-16</t>
-  </si>
-  <si>
-    <t>Langarmtrikot Guiding, 2x Trikot+Hose Kunden, 2x Socken</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
+  <si>
+    <t xml:space="preserve">Ausstände CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Datum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ausgabe für CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUMME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marketing, Recht, Gründung, Kauf und Verkauf eines Reisebüros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin Instagram Feed Developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plugin Hover Effects Builder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">März/April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verpflegung Ligurien 7 Tage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding 3 Wochen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verlust Vogesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trikot Set Hape Bar eingesackt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50% Anteil Toskana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guidelohn Toskana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King Size Theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trikotsatz Xandi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roxima Theme</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logoentwurf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Drucksachen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unterschrift Notar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auszug Niederlassung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domainverlängerungen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP Plugin WP Rocket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porto Flyerversand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domains 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fotos Shop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miete Villa Maeva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CDA1 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ligurien 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domainverlängerungen Mai 17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis CDA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis LIG1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis CDA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis LIG2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guiding Jura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis Jura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juni-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prüfung + Kurs Reisebüro AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nov-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Langarmtrikot Guiding, 2x Trikot+Hose Kunden, 2x Socken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ergebnis SDT17</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="GENERAL" numFmtId="165"/>
-    <numFmt formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-@_-" numFmtId="166"/>
-    <numFmt formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]" numFmtId="167"/>
-    <numFmt formatCode="MMM\-YY" numFmtId="168"/>
-    <numFmt formatCode="M/D/YYYY" numFmtId="169"/>
-    <numFmt formatCode="MMM\ YY" numFmtId="170"/>
-    <numFmt formatCode="@" numFmtId="171"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
+    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
+    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
+    <numFmt numFmtId="169" formatCode="MMM\ YY"/>
+    <numFmt numFmtId="170" formatCode="@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="00000000"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="1"/>
-      <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -214,19 +217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFF00"/>
-        <bgColor rgb="00FFFF00"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A9D18E"/>
-        <bgColor rgb="0099CCFF"/>
+        <fgColor rgb="FFA9D18E"/>
+        <bgColor rgb="FF99CCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -235,121 +238,175 @@
     </border>
   </borders>
   <cellStyleXfs count="21">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="165">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="167" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="168" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="169" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="170" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="165" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="20"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="171" xfId="20"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
-    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="20"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Excel Built-in Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00A9D18E"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFA9D18E"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -362,31 +419,32 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="257" min="1" style="1" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7040816326531"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <f aca="false">Lutz!E2+Lukas!E2+Roli!E2</f>
-        <is>
-          <t/>
-        </is>
+    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="n">
+        <f aca="false">Lutz!E2+Lukas!E2+Roli!E2+Ruth!E2</f>
+        <v>14639.35</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -401,20 +459,22 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.5725490196078"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.9725490196078"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.3294117647059"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.7764705882353"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3877551020408"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.3724489795918"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4744897959184"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -428,7 +488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="n">
         <v>42614</v>
       </c>
@@ -438,14 +498,12 @@
       <c r="C2" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="n">
         <f aca="false">SUM(C:C)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="3">
+        <v>2107.85</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="n">
         <v>42707</v>
       </c>
@@ -456,7 +514,7 @@
         <v>60</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="7" t="n">
         <v>42736</v>
       </c>
@@ -467,7 +525,7 @@
         <v>11</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -478,7 +536,7 @@
         <v>140</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -489,7 +547,7 @@
         <v>735</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="n">
         <v>42856</v>
       </c>
@@ -500,7 +558,7 @@
         <v>-284.15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="n">
         <v>42856</v>
       </c>
@@ -511,7 +569,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="n">
         <v>42887</v>
       </c>
@@ -519,10 +577,10 @@
         <v>13</v>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1438</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="10">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="n">
         <v>42887</v>
       </c>
@@ -536,7 +594,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -551,20 +609,22 @@
   </sheetPr>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="39.0980392156863"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.7921568627451"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="14.5254901960784"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="10" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="10" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -578,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="n">
         <v>2016</v>
       </c>
@@ -590,10 +650,10 @@
       </c>
       <c r="E2" s="11" t="n">
         <f aca="false">SUM(C$1:C$1048575)</f>
-        <v>8391</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+        <v>7595</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="n">
         <v>2016</v>
       </c>
@@ -604,7 +664,7 @@
         <v>90</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="n">
         <v>2016</v>
       </c>
@@ -615,7 +675,7 @@
         <v>35</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="n">
         <v>2016</v>
       </c>
@@ -626,7 +686,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="n">
         <v>2016</v>
       </c>
@@ -637,7 +697,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="n">
         <v>2016</v>
       </c>
@@ -648,7 +708,7 @@
         <v>240</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="n">
         <v>2016</v>
       </c>
@@ -659,7 +719,7 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="n">
         <v>2016</v>
       </c>
@@ -670,7 +730,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="n">
         <v>2016</v>
       </c>
@@ -681,7 +741,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="n">
         <v>2016</v>
       </c>
@@ -692,7 +752,7 @@
         <v>200</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="n">
         <v>2016</v>
       </c>
@@ -703,7 +763,7 @@
         <v>30</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="n">
         <v>2017</v>
       </c>
@@ -714,7 +774,7 @@
         <v>15</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="n">
         <v>2017</v>
       </c>
@@ -725,7 +785,7 @@
         <v>400</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="n">
         <v>2017</v>
       </c>
@@ -736,7 +796,7 @@
         <v>-1380</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="10" t="n">
         <v>2017</v>
       </c>
@@ -747,7 +807,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="10" t="n">
         <v>2017</v>
       </c>
@@ -758,7 +818,7 @@
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="n">
         <v>2017</v>
       </c>
@@ -769,7 +829,7 @@
         <v>245</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="n">
         <v>2017</v>
       </c>
@@ -780,7 +840,7 @@
         <v>75</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="n">
         <v>2017</v>
       </c>
@@ -791,7 +851,7 @@
         <v>385</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="n">
         <v>2017</v>
       </c>
@@ -802,7 +862,7 @@
         <v>700</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="10" t="n">
         <v>2017</v>
       </c>
@@ -813,7 +873,7 @@
         <v>-1387</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="n">
         <v>2017</v>
       </c>
@@ -821,10 +881,10 @@
         <v>34</v>
       </c>
       <c r="C23" s="11" t="n">
-        <v>1292</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="n">
         <v>2017</v>
       </c>
@@ -832,10 +892,10 @@
         <v>35</v>
       </c>
       <c r="C24" s="11" t="n">
-        <v>2186</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="n">
         <v>2017</v>
       </c>
@@ -843,10 +903,10 @@
         <v>36</v>
       </c>
       <c r="C25" s="11" t="n">
-        <v>1957</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
+        <v>1631</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="n">
         <v>2017</v>
       </c>
@@ -857,7 +917,7 @@
         <v>120</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="n">
         <v>2017</v>
       </c>
@@ -871,7 +931,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -886,19 +946,21 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.9450980392157"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.59607843137255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.1372549019608"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.59607843137255"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.98979591836735"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
+    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -912,7 +974,7 @@
         <v>4</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
+    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -922,14 +984,12 @@
       <c r="C2" s="2" t="n">
         <v>611.5</v>
       </c>
-      <c r="E2" s="2" t="inlineStr">
+      <c r="E2" s="2" t="n">
         <f aca="false">SUM(C:C)</f>
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="3">
+        <v>351.5</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="17" t="s">
         <v>41</v>
       </c>
@@ -943,10 +1003,71 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.6071428571429"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.5408163265306"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.44897959183673"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.3112244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>4585</v>
+      </c>
+      <c r="E2" s="11" t="n">
+        <f aca="false">SUM(C$1:C$1048575)</f>
+        <v>4585</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Dokumente/Ausstände CA.xlsx
+++ b/Dokumente/Ausstände CA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="SUMME" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,147 +15,142 @@
     <sheet name="Ruth" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="44">
-  <si>
-    <t xml:space="preserve">Ausstände CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Datum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Was</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ausgabe für CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUMME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marketing, Recht, Gründung, Kauf und Verkauf eines Reisebüros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin Instagram Feed Developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Plugin Hover Effects Builder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">März/April 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verpflegung Ligurien 7 Tage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding 3 Wochen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verlust Vogesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trikot Set Hape Bar eingesackt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50% Anteil Toskana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guidelohn Toskana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">King Size Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trikotsatz Xandi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roxima Theme</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Logoentwurf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Drucksachen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unterschrift Notar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auszug Niederlassung</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domainverlängerungen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WP Plugin WP Rocket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porto Flyerversand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domains 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fotos Shop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miete Villa Maeva</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDA1 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ligurien 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Domainverlängerungen Mai 17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding ST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis CDA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis LIG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis CDA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis LIG2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guiding Jura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis Jura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juni-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prüfung + Kurs Reisebüro AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nov-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Langarmtrikot Guiding, 2x Trikot+Hose Kunden, 2x Socken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ergebnis SDT17</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+  <si>
+    <t>Ausstände CA</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>Was</t>
+  </si>
+  <si>
+    <t>Ausgabe für CA</t>
+  </si>
+  <si>
+    <t>SUMME</t>
+  </si>
+  <si>
+    <t>Marketing, Recht, Gründung, Kauf und Verkauf eines Reisebüros</t>
+  </si>
+  <si>
+    <t>Plugin Instagram Feed Developer</t>
+  </si>
+  <si>
+    <t>Plugin Hover Effects Builder</t>
+  </si>
+  <si>
+    <t>März/April 2017</t>
+  </si>
+  <si>
+    <t>Verpflegung Ligurien 7 Tage</t>
+  </si>
+  <si>
+    <t>Guiding 3 Wochen</t>
+  </si>
+  <si>
+    <t>Verlust Vogesen</t>
+  </si>
+  <si>
+    <t>Trikot Set Hape Bar eingesackt</t>
+  </si>
+  <si>
+    <t>50% Anteil Toskana</t>
+  </si>
+  <si>
+    <t>Guidelohn Toskana</t>
+  </si>
+  <si>
+    <t>King Size Theme</t>
+  </si>
+  <si>
+    <t>Trikotsatz Xandi</t>
+  </si>
+  <si>
+    <t>Roxima Theme</t>
+  </si>
+  <si>
+    <t>Logoentwurf</t>
+  </si>
+  <si>
+    <t>Drucksachen</t>
+  </si>
+  <si>
+    <t>Domains</t>
+  </si>
+  <si>
+    <t>Unterschrift Notar</t>
+  </si>
+  <si>
+    <t>Auszug Niederlassung</t>
+  </si>
+  <si>
+    <t>Domainverlängerungen</t>
+  </si>
+  <si>
+    <t>WP Plugin WP Rocket</t>
+  </si>
+  <si>
+    <t>Porto Flyerversand</t>
+  </si>
+  <si>
+    <t>Domains 2017</t>
+  </si>
+  <si>
+    <t>Fotos Shop</t>
+  </si>
+  <si>
+    <t>Miete Villa Maeva</t>
+  </si>
+  <si>
+    <t>CDA1 2017</t>
+  </si>
+  <si>
+    <t>Ligurien 2017</t>
+  </si>
+  <si>
+    <t>Domainverlängerungen Mai 17</t>
+  </si>
+  <si>
+    <t>Guiding ST</t>
+  </si>
+  <si>
+    <t>Ergebnis CDA1</t>
+  </si>
+  <si>
+    <t>Ergebnis LIG1</t>
+  </si>
+  <si>
+    <t>Ergebnis CDA2</t>
+  </si>
+  <si>
+    <t>Ergebnis LIG2</t>
+  </si>
+  <si>
+    <t>Guiding Jura</t>
+  </si>
+  <si>
+    <t>Ergebnis Jura</t>
+  </si>
+  <si>
+    <t>Juni-16</t>
+  </si>
+  <si>
+    <t>Prüfung + Kurs Reisebüro AT</t>
+  </si>
+  <si>
+    <t>Nov-16</t>
+  </si>
+  <si>
+    <t>Langarmtrikot Guiding, 2x Trikot+Hose Kunden, 2x Socken</t>
+  </si>
+  <si>
+    <t>Ergebnis SDT17</t>
   </si>
 </sst>
 </file>
@@ -163,49 +158,54 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]"/>
-    <numFmt numFmtId="167" formatCode="MMM\-YY"/>
-    <numFmt numFmtId="168" formatCode="M/D/YYYY"/>
-    <numFmt numFmtId="169" formatCode="MMM\ YY"/>
-    <numFmt numFmtId="170" formatCode="@"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
+    <numFmt formatCode="_-* #,##0.00\ [$€-407]_-;\-* #,##0.00\ [$€-407]_-;_-* \-??\ [$€-407]_-;_-@_-" numFmtId="165"/>
+    <numFmt formatCode="#,##0.00\ [$€-407];[RED]\-#,##0.00\ [$€-407]" numFmtId="166"/>
+    <numFmt formatCode="MMM\-YY" numFmtId="167"/>
+    <numFmt formatCode="M/D/YYYY" numFmtId="168"/>
+    <numFmt formatCode="MMM\ YY" numFmtId="169"/>
+    <numFmt formatCode="@" numFmtId="170"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="00000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+    </font>
+    <font>
       <name val="Arial"/>
+      <charset val="1"/>
       <family val="2"/>
-      <charset val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="4">
@@ -217,19 +217,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
+        <fgColor rgb="00FFFF00"/>
+        <bgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA9D18E"/>
-        <bgColor rgb="FF99CCFF"/>
+        <fgColor rgb="00A9D18E"/>
+        <bgColor rgb="0099CCFF"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border diagonalDown="false" diagonalUp="false">
       <left/>
       <right/>
       <top/>
@@ -237,176 +237,128 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="22">
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="4" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="6" numFmtId="164">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="19">
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="166" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="168" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="169" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="5" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="5" numFmtId="164" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="21"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="165" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="170" xfId="20"/>
+    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="21"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Excel Built-in Excel Built-in Normal" xfId="20" builtinId="53" customBuiltin="true"/>
+  <cellStyles count="8">
+    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
+    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
+    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
+    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
+    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Explanatory Text" xfId="20"/>
+    <cellStyle builtinId="54" customBuiltin="true" name="Excel Built-in Normal" xfId="15"/>
   </cellStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFA9D18E"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00A9D18E"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -419,32 +371,32 @@
   </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7040816326531"/>
-    <col collapsed="false" hidden="false" max="257" min="2" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.7764705882353"/>
+    <col collapsed="false" hidden="false" max="257" min="2" style="1" width="9.49803921568627"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
+      <c r="A2" s="2" t="inlineStr">
         <f aca="false">Lutz!E2+Lukas!E2+Roli!E2+Ruth!E2</f>
-        <v>14639.35</v>
+        <is>
+          <t/>
+        </is>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -459,22 +411,20 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.3877551020408"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.3724489795918"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.1224489795918"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.4744897959184"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="15.4666666666667"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="57.6588235294118"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="10.1764705882353"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="11.5333333333333"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.49803921568627"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -488,7 +438,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
       <c r="A2" s="7" t="n">
         <v>42614</v>
       </c>
@@ -498,12 +448,14 @@
       <c r="C2" s="3" t="n">
         <v>138</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="inlineStr">
         <f aca="false">SUM(C:C)</f>
-        <v>2107.85</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="3">
       <c r="A3" s="8" t="n">
         <v>42707</v>
       </c>
@@ -514,7 +466,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="4">
       <c r="A4" s="7" t="n">
         <v>42736</v>
       </c>
@@ -525,7 +477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -536,7 +488,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="6">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -547,7 +499,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="7">
       <c r="A7" s="7" t="n">
         <v>42856</v>
       </c>
@@ -558,7 +510,7 @@
         <v>-284.15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="8">
       <c r="A8" s="7" t="n">
         <v>42856</v>
       </c>
@@ -569,7 +521,7 @@
         <v>-100</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="9">
       <c r="A9" s="9" t="n">
         <v>42887</v>
       </c>
@@ -580,7 +532,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="10">
       <c r="A10" s="9" t="n">
         <v>42887</v>
       </c>
@@ -594,7 +546,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -607,24 +559,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="257" min="7" style="10" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.6745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="10" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="7" style="10" width="9.49803921568627"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -638,7 +588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="10" t="n">
         <v>2016</v>
       </c>
@@ -650,10 +600,10 @@
       </c>
       <c r="E2" s="11" t="n">
         <f aca="false">SUM(C$1:C$1048575)</f>
-        <v>7595</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>7635</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
       <c r="A3" s="10" t="n">
         <v>2016</v>
       </c>
@@ -664,7 +614,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
       <c r="A4" s="10" t="n">
         <v>2016</v>
       </c>
@@ -675,7 +625,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="10" t="n">
         <v>2016</v>
       </c>
@@ -686,7 +636,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="10" t="n">
         <v>2016</v>
       </c>
@@ -697,7 +647,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="10" t="n">
         <v>2016</v>
       </c>
@@ -708,7 +658,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="10" t="n">
         <v>2016</v>
       </c>
@@ -719,7 +669,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="10" t="n">
         <v>2016</v>
       </c>
@@ -730,7 +680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="10" t="n">
         <v>2016</v>
       </c>
@@ -741,7 +691,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="10" t="n">
         <v>2016</v>
       </c>
@@ -752,7 +702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="10" t="n">
         <v>2016</v>
       </c>
@@ -763,7 +713,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="10" t="n">
         <v>2017</v>
       </c>
@@ -774,7 +724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="10" t="n">
         <v>2017</v>
       </c>
@@ -785,7 +735,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="10" t="n">
         <v>2017</v>
       </c>
@@ -796,7 +746,7 @@
         <v>-1380</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="10" t="n">
         <v>2017</v>
       </c>
@@ -807,7 +757,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="10" t="n">
         <v>2017</v>
       </c>
@@ -818,7 +768,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="10" t="n">
         <v>2017</v>
       </c>
@@ -829,7 +779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="10" t="n">
         <v>2017</v>
       </c>
@@ -840,7 +790,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="10" t="n">
         <v>2017</v>
       </c>
@@ -851,7 +801,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="10" t="n">
         <v>2017</v>
       </c>
@@ -862,7 +812,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="10" t="n">
         <v>2017</v>
       </c>
@@ -873,7 +823,7 @@
         <v>-1387</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="10" t="n">
         <v>2017</v>
       </c>
@@ -884,7 +834,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
       <c r="A24" s="10" t="n">
         <v>2017</v>
       </c>
@@ -895,7 +845,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
       <c r="A25" s="10" t="n">
         <v>2017</v>
       </c>
@@ -906,7 +856,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="10" t="n">
         <v>2017</v>
       </c>
@@ -917,7 +867,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
       <c r="A27" s="10" t="n">
         <v>2017</v>
       </c>
@@ -926,12 +876,23 @@
       </c>
       <c r="C27" s="11" t="n">
         <v>-362</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="10" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="11" t="n">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -946,21 +907,19 @@
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.7959183673469"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="258" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="1" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.8745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="10.0392156862745"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="1" width="9.49803921568627"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -974,7 +933,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="2">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -984,12 +943,14 @@
       <c r="C2" s="2" t="n">
         <v>611.5</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="2" t="inlineStr">
         <f aca="false">SUM(C:C)</f>
-        <v>351.5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.2" outlineLevel="0" r="3">
       <c r="A3" s="17" t="s">
         <v>41</v>
       </c>
@@ -1003,7 +964,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -1018,21 +979,20 @@
   </sheetPr>
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="false" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
+      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.6071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.5408163265306"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.44897959183673"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="10" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="10" width="38.8"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="11" width="27.6745098039216"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="10" width="9.49803921568627"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="10" width="14.3803921568627"/>
+    <col collapsed="false" hidden="false" max="257" min="6" style="18" width="11.5764705882353"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
       <c r="A1" s="12" t="s">
         <v>1</v>
       </c>
@@ -1046,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
       <c r="A2" s="10" t="n">
         <v>2017</v>
       </c>
@@ -1064,10 +1024,10 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>